--- a/기능목록표-4.xlsx
+++ b/기능목록표-4.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1613C555-56FA-4DB2-A233-7B1C506DC587}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80BE018-4BC1-4DAB-A7A3-CC763A0D4AE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6975" yWindow="825" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="113">
   <si>
     <t>순번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -206,10 +206,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>알림 유무</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>매장/원산지 정보</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -463,6 +459,22 @@
   </si>
   <si>
     <t>F045</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한식, 치킨, 분식과 같이 카테고리별로 음식점을 조회한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배달 현황 알림 유무</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>혜택 정보 알림 유무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F046</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -470,7 +482,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -550,7 +562,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -561,11 +573,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -580,6 +588,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -920,28 +935,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15.5" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.5" customWidth="1"/>
     <col min="5" max="5" width="10.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
@@ -949,7 +964,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
@@ -957,7 +972,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -974,615 +989,627 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="8" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="8" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
         <v>4</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10" t="s">
+      <c r="D9" s="8"/>
+      <c r="E9" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>5</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="9">
-        <v>5</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="8" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>6</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>7</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>8</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>9</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>10</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>11</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <v>12</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>13</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <v>14</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <v>15</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <v>16</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
+        <v>17</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
+        <v>18</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
         <v>19</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="9">
-        <v>6</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="8" t="s">
+      <c r="B24" s="5"/>
+      <c r="C24" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
         <v>20</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="9">
-        <v>7</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="8" t="s">
+      <c r="B25" s="5"/>
+      <c r="C25" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="7">
         <v>21</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="9">
-        <v>8</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="8" t="s">
+      <c r="B26" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="7">
         <v>22</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="9">
-        <v>9</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8" t="s">
+      <c r="B27" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="7">
         <v>23</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="9">
-        <v>10</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8" t="s">
+      <c r="B28" s="5"/>
+      <c r="C28" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="7">
         <v>24</v>
       </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="9">
-        <v>11</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8" t="s">
+      <c r="B29" s="5"/>
+      <c r="C29" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="7">
         <v>25</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="9">
-        <v>12</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8" t="s">
+      <c r="B30" s="5"/>
+      <c r="C30" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="7">
         <v>26</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="9">
-        <v>13</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8" t="s">
+      <c r="B31" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="7">
         <v>27</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="9">
-        <v>14</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8" t="s">
+      <c r="B32" s="5"/>
+      <c r="C32" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="7">
         <v>28</v>
       </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="9">
-        <v>15</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8" t="s">
+      <c r="B33" s="5"/>
+      <c r="C33" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="7">
         <v>29</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="9">
-        <v>16</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8" t="s">
+      <c r="B34" s="5"/>
+      <c r="C34" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="7">
         <v>30</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="9">
-        <v>17</v>
-      </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8" t="s">
+      <c r="B35" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="7">
         <v>31</v>
       </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="9">
-        <v>18</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="8" t="s">
+      <c r="B36" s="5"/>
+      <c r="C36" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="7">
         <v>32</v>
       </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="9">
-        <v>19</v>
-      </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="8" t="s">
+      <c r="B37" s="8"/>
+      <c r="C37" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="7">
         <v>33</v>
       </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="9">
-        <v>20</v>
-      </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8" t="s">
+      <c r="B38" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="7">
         <v>34</v>
       </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="9">
-        <v>21</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="8" t="s">
+      <c r="B39" s="5"/>
+      <c r="C39" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="7">
         <v>35</v>
       </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="9">
-        <v>22</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="8" t="s">
+      <c r="B40" s="5"/>
+      <c r="C40" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="7">
         <v>36</v>
       </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="9">
-        <v>23</v>
-      </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="8" t="s">
+      <c r="B41" s="5"/>
+      <c r="C41" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="7">
         <v>37</v>
       </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="9">
-        <v>24</v>
-      </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="8" t="s">
+      <c r="B42" s="5"/>
+      <c r="C42" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="7">
         <v>38</v>
       </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="9">
-        <v>25</v>
-      </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="8" t="s">
+      <c r="B43" s="5"/>
+      <c r="C43" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="7">
         <v>39</v>
       </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="9">
-        <v>26</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="8" t="s">
+      <c r="B44" s="5"/>
+      <c r="C44" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="7">
         <v>40</v>
       </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="9">
-        <v>27</v>
-      </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="8" t="s">
+      <c r="B45" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="7">
         <v>41</v>
       </c>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="9">
-        <v>28</v>
-      </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="8" t="s">
+      <c r="B46" s="5"/>
+      <c r="C46" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="7">
         <v>42</v>
       </c>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="9">
-        <v>29</v>
-      </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="8" t="s">
+      <c r="B47" s="5"/>
+      <c r="C47" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="7">
         <v>43</v>
       </c>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="9">
-        <v>30</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35" s="8" t="s">
+      <c r="B48" s="5"/>
+      <c r="C48" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="7">
         <v>44</v>
       </c>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="9">
-        <v>31</v>
-      </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="8" t="s">
+      <c r="B49" s="5"/>
+      <c r="C49" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="7">
         <v>45</v>
       </c>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="9">
-        <v>32</v>
-      </c>
-      <c r="B37" s="7" t="s">
+      <c r="B50" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C50" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="7">
         <v>46</v>
       </c>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="9">
-        <v>33</v>
-      </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="9">
-        <v>34</v>
-      </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="9">
-        <v>35</v>
-      </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="9">
-        <v>36</v>
-      </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="9">
-        <v>37</v>
-      </c>
-      <c r="B42" s="7"/>
-      <c r="C42" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="9">
-        <v>38</v>
-      </c>
-      <c r="B43" s="7"/>
-      <c r="C43" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="9">
-        <v>39</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="9">
-        <v>40</v>
-      </c>
-      <c r="B45" s="7"/>
-      <c r="C45" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="9">
-        <v>41</v>
-      </c>
-      <c r="B46" s="7"/>
-      <c r="C46" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="9">
-        <v>42</v>
-      </c>
-      <c r="B47" s="7"/>
-      <c r="C47" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="9">
-        <v>43</v>
-      </c>
-      <c r="B48" s="7"/>
-      <c r="C48" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="9">
-        <v>44</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C49" s="8" t="s">
+      <c r="B51" s="10"/>
+      <c r="C51" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="9">
-        <v>45</v>
-      </c>
-      <c r="B50" s="12"/>
-      <c r="C50" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="6"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="13" t="s">
+        <v>112</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/기능목록표-4.xlsx
+++ b/기능목록표-4.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80BE018-4BC1-4DAB-A7A3-CC763A0D4AE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="124">
   <si>
     <t>순번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -475,13 +474,57 @@
   </si>
   <si>
     <t>F046</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>준비 중인 주문을 조회한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배달 기사의 위치를 실시간으로 조회한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과거 주문 내역을 조회한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최근 검색어를 조회한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 이벤트 페이지로 이동한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과거 주문 했던 음식을 다시 주문한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색어를 입력하여 검색한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용약관, 서비스 이용시간 등의 공지사항을 안내한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자주 묻는 질문을 안내한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객 센터 번호, 이메일 등의 고객 지원 정보를 안내한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인기 검색어를 1위부터 10위까지 순서대로 조회한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -588,13 +631,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -655,7 +698,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -688,26 +731,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -740,23 +766,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -932,14 +941,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="15.5" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
@@ -947,16 +956,16 @@
     <col min="5" max="5" width="10.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:5" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
@@ -964,7 +973,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
@@ -972,7 +981,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -989,7 +998,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -1006,7 +1015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
         <v>2</v>
       </c>
@@ -1019,7 +1028,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="4">
         <v>3</v>
       </c>
@@ -1032,7 +1041,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="7">
         <v>4</v>
       </c>
@@ -1047,7 +1056,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="7">
         <v>5</v>
       </c>
@@ -1060,7 +1069,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="7">
         <v>6</v>
       </c>
@@ -1073,7 +1082,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="7">
         <v>7</v>
       </c>
@@ -1086,7 +1095,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="7">
         <v>8</v>
       </c>
@@ -1101,7 +1110,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="7">
         <v>9</v>
       </c>
@@ -1114,7 +1123,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="7">
         <v>10</v>
       </c>
@@ -1127,7 +1136,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="7">
         <v>11</v>
       </c>
@@ -1140,7 +1149,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="7">
         <v>12</v>
       </c>
@@ -1153,7 +1162,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="7">
         <v>13</v>
       </c>
@@ -1166,7 +1175,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="7">
         <v>14</v>
       </c>
@@ -1174,12 +1183,14 @@
       <c r="C19" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="8"/>
+      <c r="D19" s="8" t="s">
+        <v>113</v>
+      </c>
       <c r="E19" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="7">
         <v>15</v>
       </c>
@@ -1187,12 +1198,14 @@
       <c r="C20" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="8"/>
+      <c r="D20" s="8" t="s">
+        <v>114</v>
+      </c>
       <c r="E20" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="7">
         <v>16</v>
       </c>
@@ -1200,12 +1213,14 @@
       <c r="C21" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="8"/>
+      <c r="D21" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="E21" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="7">
         <v>17</v>
       </c>
@@ -1213,12 +1228,14 @@
       <c r="C22" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="8"/>
+      <c r="D22" s="8" t="s">
+        <v>118</v>
+      </c>
       <c r="E22" s="8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="7">
         <v>18</v>
       </c>
@@ -1228,12 +1245,14 @@
       <c r="C23" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="8"/>
+      <c r="D23" s="8" t="s">
+        <v>119</v>
+      </c>
       <c r="E23" s="8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="7">
         <v>19</v>
       </c>
@@ -1241,12 +1260,14 @@
       <c r="C24" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="8"/>
+      <c r="D24" s="8" t="s">
+        <v>123</v>
+      </c>
       <c r="E24" s="8" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="7">
         <v>20</v>
       </c>
@@ -1254,12 +1275,14 @@
       <c r="C25" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="8"/>
+      <c r="D25" s="8" t="s">
+        <v>116</v>
+      </c>
       <c r="E25" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="7">
         <v>21</v>
       </c>
@@ -1269,12 +1292,14 @@
       <c r="C26" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="8"/>
+      <c r="D26" s="8" t="s">
+        <v>117</v>
+      </c>
       <c r="E26" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="7">
         <v>22</v>
       </c>
@@ -1284,12 +1309,14 @@
       <c r="C27" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="8"/>
+      <c r="D27" s="8" t="s">
+        <v>120</v>
+      </c>
       <c r="E27" s="8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="7">
         <v>23</v>
       </c>
@@ -1297,12 +1324,14 @@
       <c r="C28" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="8"/>
+      <c r="D28" s="8" t="s">
+        <v>121</v>
+      </c>
       <c r="E28" s="8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" s="7">
         <v>24</v>
       </c>
@@ -1310,12 +1339,14 @@
       <c r="C29" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="8"/>
+      <c r="D29" s="8" t="s">
+        <v>122</v>
+      </c>
       <c r="E29" s="8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" s="7">
         <v>25</v>
       </c>
@@ -1328,7 +1359,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" s="7">
         <v>26</v>
       </c>
@@ -1343,7 +1374,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" s="7">
         <v>27</v>
       </c>
@@ -1356,7 +1387,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" s="7">
         <v>28</v>
       </c>
@@ -1369,7 +1400,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" s="7">
         <v>29</v>
       </c>
@@ -1382,7 +1413,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" s="7">
         <v>30</v>
       </c>
@@ -1397,7 +1428,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" s="7">
         <v>31</v>
       </c>
@@ -1410,12 +1441,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" s="7">
         <v>32</v>
       </c>
       <c r="B37" s="8"/>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="11" t="s">
         <v>111</v>
       </c>
       <c r="D37" s="8"/>
@@ -1423,7 +1454,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" s="7">
         <v>33</v>
       </c>
@@ -1438,7 +1469,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" s="7">
         <v>34</v>
       </c>
@@ -1451,7 +1482,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" s="7">
         <v>35</v>
       </c>
@@ -1464,7 +1495,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" s="7">
         <v>36</v>
       </c>
@@ -1477,7 +1508,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" s="7">
         <v>37</v>
       </c>
@@ -1490,7 +1521,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" s="7">
         <v>38</v>
       </c>
@@ -1503,7 +1534,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" s="7">
         <v>39</v>
       </c>
@@ -1516,7 +1547,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" s="7">
         <v>40</v>
       </c>
@@ -1531,7 +1562,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" s="7">
         <v>41</v>
       </c>
@@ -1544,7 +1575,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47" s="7">
         <v>42</v>
       </c>
@@ -1557,7 +1588,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" s="7">
         <v>43</v>
       </c>
@@ -1570,7 +1601,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" s="7">
         <v>44</v>
       </c>
@@ -1583,7 +1614,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" s="7">
         <v>45</v>
       </c>
@@ -1598,7 +1629,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" s="7">
         <v>46</v>
       </c>
@@ -1607,7 +1638,7 @@
         <v>58</v>
       </c>
       <c r="D51" s="8"/>
-      <c r="E51" s="13" t="s">
+      <c r="E51" s="12" t="s">
         <v>112</v>
       </c>
     </row>

--- a/기능목록표-4.xlsx
+++ b/기능목록표-4.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80BE018-4BC1-4DAB-A7A3-CC763A0D4AE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB9DBAC-F890-4570-9E20-F8B1DE027DFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="124">
   <si>
     <t>순번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -475,6 +475,50 @@
   </si>
   <si>
     <t>F046</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음식점에서 판매하는 메뉴를 조회한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음식점 위치, 영업시간, 매장소개, 원산지 정보, 공지사항, 영양성분 정보, 알레르기 유발성분 정보를 조회한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음식점 전화번호를 조회한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스 이용 약관, 개인정보 처리방침, 전자금융거래약관을 조회한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템 기본설정, 한국어, 영어 중 사용할 언어를 선택한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배달 현황 일림을 받을지 선택한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿠폰&amp;혜택 정보 알림을 받을지 선택한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정을 로그아웃한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보를 입력하여 쿠팡 회원가입을 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿠팡 앱으로 로그인, 쿠팡 아이디로 로그인할지 선택하여 계정에 로그인한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿠팡이츠 어플에 회원 탈퇴기능 없음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -482,7 +526,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -517,6 +561,14 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -562,7 +614,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -588,13 +640,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -935,11 +991,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="15.5" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
@@ -947,16 +1003,16 @@
     <col min="5" max="5" width="10.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:5" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
@@ -964,7 +1020,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
@@ -972,7 +1028,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -989,7 +1045,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -1006,7 +1062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="4">
         <v>2</v>
       </c>
@@ -1019,7 +1075,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="4">
         <v>3</v>
       </c>
@@ -1032,7 +1088,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="7">
         <v>4</v>
       </c>
@@ -1047,7 +1103,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="7">
         <v>5</v>
       </c>
@@ -1060,7 +1116,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="7">
         <v>6</v>
       </c>
@@ -1073,7 +1129,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="7">
         <v>7</v>
       </c>
@@ -1086,7 +1142,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="7">
         <v>8</v>
       </c>
@@ -1101,7 +1157,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="7">
         <v>9</v>
       </c>
@@ -1114,7 +1170,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="7">
         <v>10</v>
       </c>
@@ -1127,7 +1183,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" s="7">
         <v>11</v>
       </c>
@@ -1140,7 +1196,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="7">
         <v>12</v>
       </c>
@@ -1153,7 +1209,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="7">
         <v>13</v>
       </c>
@@ -1166,7 +1222,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="7">
         <v>14</v>
       </c>
@@ -1179,7 +1235,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="7">
         <v>15</v>
       </c>
@@ -1192,7 +1248,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="7">
         <v>16</v>
       </c>
@@ -1205,7 +1261,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="7">
         <v>17</v>
       </c>
@@ -1218,7 +1274,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="7">
         <v>18</v>
       </c>
@@ -1233,7 +1289,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="7">
         <v>19</v>
       </c>
@@ -1246,7 +1302,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="7">
         <v>20</v>
       </c>
@@ -1259,7 +1315,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="7">
         <v>21</v>
       </c>
@@ -1274,7 +1330,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="7">
         <v>22</v>
       </c>
@@ -1289,7 +1345,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="7">
         <v>23</v>
       </c>
@@ -1302,7 +1358,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" s="7">
         <v>24</v>
       </c>
@@ -1315,7 +1371,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A30" s="7">
         <v>25</v>
       </c>
@@ -1323,12 +1379,14 @@
       <c r="C30" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="8"/>
+      <c r="D30" s="14" t="s">
+        <v>116</v>
+      </c>
       <c r="E30" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" s="7">
         <v>26</v>
       </c>
@@ -1338,12 +1396,14 @@
       <c r="C31" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="8"/>
+      <c r="D31" s="8" t="s">
+        <v>121</v>
+      </c>
       <c r="E31" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A32" s="7">
         <v>27</v>
       </c>
@@ -1351,12 +1411,14 @@
       <c r="C32" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="8"/>
+      <c r="D32" s="14" t="s">
+        <v>122</v>
+      </c>
       <c r="E32" s="8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" s="7">
         <v>28</v>
       </c>
@@ -1364,12 +1426,14 @@
       <c r="C33" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="8"/>
+      <c r="D33" s="8" t="s">
+        <v>120</v>
+      </c>
       <c r="E33" s="8" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" s="7">
         <v>29</v>
       </c>
@@ -1377,12 +1441,14 @@
       <c r="C34" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D34" s="8"/>
+      <c r="D34" s="15" t="s">
+        <v>123</v>
+      </c>
       <c r="E34" s="8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" s="7">
         <v>30</v>
       </c>
@@ -1392,12 +1458,14 @@
       <c r="C35" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="8"/>
+      <c r="D35" s="8" t="s">
+        <v>117</v>
+      </c>
       <c r="E35" s="8" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" s="7">
         <v>31</v>
       </c>
@@ -1405,25 +1473,29 @@
       <c r="C36" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D36" s="8"/>
+      <c r="D36" s="8" t="s">
+        <v>118</v>
+      </c>
       <c r="E36" s="8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" s="7">
         <v>32</v>
       </c>
       <c r="B37" s="8"/>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D37" s="8"/>
+      <c r="D37" s="8" t="s">
+        <v>119</v>
+      </c>
       <c r="E37" s="8" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A38" s="7">
         <v>33</v>
       </c>
@@ -1433,12 +1505,14 @@
       <c r="C38" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D38" s="8"/>
+      <c r="D38" s="14" t="s">
+        <v>114</v>
+      </c>
       <c r="E38" s="8" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" s="7">
         <v>34</v>
       </c>
@@ -1446,12 +1520,14 @@
       <c r="C39" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="8"/>
+      <c r="D39" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="E39" s="8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" s="7">
         <v>35</v>
       </c>
@@ -1459,12 +1535,14 @@
       <c r="C40" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="8"/>
+      <c r="D40" s="8" t="s">
+        <v>113</v>
+      </c>
       <c r="E40" s="8" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" s="7">
         <v>36</v>
       </c>
@@ -1477,7 +1555,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" s="7">
         <v>37</v>
       </c>
@@ -1490,7 +1568,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" s="7">
         <v>38</v>
       </c>
@@ -1503,7 +1581,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" s="7">
         <v>39</v>
       </c>
@@ -1516,7 +1594,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" s="7">
         <v>40</v>
       </c>
@@ -1531,7 +1609,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" s="7">
         <v>41</v>
       </c>
@@ -1544,7 +1622,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47" s="7">
         <v>42</v>
       </c>
@@ -1557,7 +1635,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" s="7">
         <v>43</v>
       </c>
@@ -1570,7 +1648,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" s="7">
         <v>44</v>
       </c>
@@ -1583,7 +1661,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" s="7">
         <v>45</v>
       </c>
@@ -1598,7 +1676,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" s="7">
         <v>46</v>
       </c>
@@ -1607,7 +1685,7 @@
         <v>58</v>
       </c>
       <c r="D51" s="8"/>
-      <c r="E51" s="13" t="s">
+      <c r="E51" s="12" t="s">
         <v>112</v>
       </c>
     </row>

--- a/기능목록표-4.xlsx
+++ b/기능목록표-4.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80BE018-4BC1-4DAB-A7A3-CC763A0D4AE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F50FC29-85D0-4541-AAA6-11B3A98BCEAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="124">
   <si>
     <t>순번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -475,6 +475,50 @@
   </si>
   <si>
     <t>F046</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">주문한 음식을 배달받는 데 드는 시간의 통계를 구해 알려준다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음식점에서 제공하는 할인 쿠폰을 등록한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>즐겨 찾는 음식점을 등록하여 별도로 조회할 수 있게 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문한 음식에 대한 리뷰를 작성하면서 사진을 함께 등록한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰를 최신순, 별점순 등 특정 기준에 따라 정렬하여 조회한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문한 음식에 대한 리뷰를 작성, 수정, 삭제한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 음식점의 이전 주문자들이 작성한 리뷰를 조회한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 주문자가 등록한 리뷰가 도움이 됐는 지 버튼을 눌러 표현한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제 소지가 있는 리뷰를 신고한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 스크롤을 맨 위로 이동시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 페이지에서 제공하는 정보를 최신 정보로 업데이트한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -588,13 +632,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -935,28 +979,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="15.5" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="51.5" customWidth="1"/>
-    <col min="5" max="5" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:5" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
@@ -964,7 +1008,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
@@ -972,7 +1016,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -989,7 +1033,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -1006,7 +1050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
         <v>2</v>
       </c>
@@ -1019,7 +1063,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
         <v>3</v>
       </c>
@@ -1032,7 +1076,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="7">
         <v>4</v>
       </c>
@@ -1047,7 +1091,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="7">
         <v>5</v>
       </c>
@@ -1060,7 +1104,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="7">
         <v>6</v>
       </c>
@@ -1073,7 +1117,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="7">
         <v>7</v>
       </c>
@@ -1086,7 +1130,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="7">
         <v>8</v>
       </c>
@@ -1101,7 +1145,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="7">
         <v>9</v>
       </c>
@@ -1114,7 +1158,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="7">
         <v>10</v>
       </c>
@@ -1127,7 +1171,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="7">
         <v>11</v>
       </c>
@@ -1140,7 +1184,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="7">
         <v>12</v>
       </c>
@@ -1153,7 +1197,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="7">
         <v>13</v>
       </c>
@@ -1166,7 +1210,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="7">
         <v>14</v>
       </c>
@@ -1179,7 +1223,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="7">
         <v>15</v>
       </c>
@@ -1192,7 +1236,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="7">
         <v>16</v>
       </c>
@@ -1205,7 +1249,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="7">
         <v>17</v>
       </c>
@@ -1218,7 +1262,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="7">
         <v>18</v>
       </c>
@@ -1233,7 +1277,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="7">
         <v>19</v>
       </c>
@@ -1246,7 +1290,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="7">
         <v>20</v>
       </c>
@@ -1259,7 +1303,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="7">
         <v>21</v>
       </c>
@@ -1274,7 +1318,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="7">
         <v>22</v>
       </c>
@@ -1289,7 +1333,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="7">
         <v>23</v>
       </c>
@@ -1302,7 +1346,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="7">
         <v>24</v>
       </c>
@@ -1315,7 +1359,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="7">
         <v>25</v>
       </c>
@@ -1328,7 +1372,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="7">
         <v>26</v>
       </c>
@@ -1343,7 +1387,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="7">
         <v>27</v>
       </c>
@@ -1356,7 +1400,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="7">
         <v>28</v>
       </c>
@@ -1369,7 +1413,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="7">
         <v>29</v>
       </c>
@@ -1382,7 +1426,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="7">
         <v>30</v>
       </c>
@@ -1397,7 +1441,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="7">
         <v>31</v>
       </c>
@@ -1410,12 +1454,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="7">
         <v>32</v>
       </c>
       <c r="B37" s="8"/>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="11" t="s">
         <v>111</v>
       </c>
       <c r="D37" s="8"/>
@@ -1423,7 +1467,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="7">
         <v>33</v>
       </c>
@@ -1438,7 +1482,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" s="7">
         <v>34</v>
       </c>
@@ -1451,7 +1495,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" s="7">
         <v>35</v>
       </c>
@@ -1464,7 +1508,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" s="7">
         <v>36</v>
       </c>
@@ -1472,12 +1516,14 @@
       <c r="C41" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D41" s="8"/>
+      <c r="D41" s="8" t="s">
+        <v>113</v>
+      </c>
       <c r="E41" s="8" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" s="7">
         <v>37</v>
       </c>
@@ -1485,12 +1531,14 @@
       <c r="C42" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="8"/>
+      <c r="D42" s="8" t="s">
+        <v>114</v>
+      </c>
       <c r="E42" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" s="7">
         <v>38</v>
       </c>
@@ -1498,12 +1546,14 @@
       <c r="C43" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D43" s="8"/>
+      <c r="D43" s="8" t="s">
+        <v>115</v>
+      </c>
       <c r="E43" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" s="7">
         <v>39</v>
       </c>
@@ -1511,12 +1561,14 @@
       <c r="C44" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D44" s="8"/>
+      <c r="D44" s="8" t="s">
+        <v>119</v>
+      </c>
       <c r="E44" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" s="7">
         <v>40</v>
       </c>
@@ -1526,12 +1578,14 @@
       <c r="C45" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="8"/>
+      <c r="D45" s="8" t="s">
+        <v>116</v>
+      </c>
       <c r="E45" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" s="7">
         <v>41</v>
       </c>
@@ -1539,12 +1593,14 @@
       <c r="C46" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D46" s="8"/>
+      <c r="D46" s="8" t="s">
+        <v>117</v>
+      </c>
       <c r="E46" s="8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" s="7">
         <v>42</v>
       </c>
@@ -1552,12 +1608,14 @@
       <c r="C47" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D47" s="8"/>
+      <c r="D47" s="8" t="s">
+        <v>120</v>
+      </c>
       <c r="E47" s="8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" s="7">
         <v>43</v>
       </c>
@@ -1565,12 +1623,14 @@
       <c r="C48" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D48" s="8"/>
+      <c r="D48" s="8" t="s">
+        <v>118</v>
+      </c>
       <c r="E48" s="8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" s="7">
         <v>44</v>
       </c>
@@ -1578,12 +1638,14 @@
       <c r="C49" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D49" s="8"/>
+      <c r="D49" s="8" t="s">
+        <v>121</v>
+      </c>
       <c r="E49" s="8" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" s="7">
         <v>45</v>
       </c>
@@ -1593,12 +1655,14 @@
       <c r="C50" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D50" s="8"/>
+      <c r="D50" s="8" t="s">
+        <v>122</v>
+      </c>
       <c r="E50" s="8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51" s="7">
         <v>46</v>
       </c>
@@ -1606,8 +1670,10 @@
       <c r="C51" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D51" s="8"/>
-      <c r="E51" s="13" t="s">
+      <c r="D51" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E51" s="12" t="s">
         <v>112</v>
       </c>
     </row>

--- a/기능목록표-4.xlsx
+++ b/기능목록표-4.xlsx
@@ -481,10 +481,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>배달 기사의 위치를 실시간으로 조회한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>과거 주문 내역을 조회한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -518,6 +514,10 @@
   </si>
   <si>
     <t>인기 검색어를 1위부터 10위까지 순서대로 조회한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배달 현황과 배달 기사의 위치를 실시간으로 조회한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -944,8 +944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1199,7 +1199,7 @@
         <v>29</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>78</v>
@@ -1214,7 +1214,7 @@
         <v>30</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>79</v>
@@ -1229,7 +1229,7 @@
         <v>31</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>80</v>
@@ -1246,7 +1246,7 @@
         <v>32</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>81</v>
@@ -1261,7 +1261,7 @@
         <v>33</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>82</v>
@@ -1276,7 +1276,7 @@
         <v>34</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>83</v>
@@ -1293,7 +1293,7 @@
         <v>35</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>85</v>
@@ -1310,7 +1310,7 @@
         <v>36</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>86</v>
@@ -1325,7 +1325,7 @@
         <v>37</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>87</v>
@@ -1340,7 +1340,7 @@
         <v>38</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>88</v>

--- a/기능목록표-4.xlsx
+++ b/기능목록표-4.xlsx
@@ -945,7 +945,7 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>

--- a/기능목록표-4.xlsx
+++ b/기능목록표-4.xlsx
@@ -6,12 +6,13 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 2 - 쿠팡이츠 설명" sheetId="2" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="157">
   <si>
     <t>쿠팡 이츠 프로그램 기능 목록표</t>
   </si>
@@ -19,7 +20,7 @@
     <t>작성일:</t>
   </si>
   <si>
-    <t>2021-04-00</t>
+    <t>2021-04-11</t>
   </si>
   <si>
     <t>팀 번호:</t>
@@ -172,24 +173,36 @@
     <t>준비 중 주문 조회</t>
   </si>
   <si>
+    <t>준비 중인 주문을 조회한다.</t>
+  </si>
+  <si>
     <t>F014</t>
   </si>
   <si>
     <t>배달 현황 실시간 조회</t>
   </si>
   <si>
+    <t>배달 현황과 배달 기사의 위치를 실시간으로 조회한다.</t>
+  </si>
+  <si>
     <t>F015</t>
   </si>
   <si>
     <t>과거 주문 내역 조회</t>
   </si>
   <si>
+    <t>과거 주문 내역을 조회한다.</t>
+  </si>
+  <si>
     <t>F016</t>
   </si>
   <si>
     <t>재주문</t>
   </si>
   <si>
+    <t>과거 주문 했던 음식을 다시 주문한다.</t>
+  </si>
+  <si>
     <t>F017</t>
   </si>
   <si>
@@ -199,18 +212,27 @@
     <t>검색어 입력</t>
   </si>
   <si>
+    <t>검색어를 입력하여 검색한다.</t>
+  </si>
+  <si>
     <t>F018</t>
   </si>
   <si>
     <t>인기 검색어 조회</t>
   </si>
   <si>
+    <t>인기 검색어를 1위부터 10위까지 순서대로 조회한다.</t>
+  </si>
+  <si>
     <t>F019</t>
   </si>
   <si>
     <t>최근 검색어 조회</t>
   </si>
   <si>
+    <t>최근 검색어를 조회한다.</t>
+  </si>
+  <si>
     <t>F020</t>
   </si>
   <si>
@@ -220,6 +242,9 @@
     <t>상단 이벤트 배너</t>
   </si>
   <si>
+    <t>해당 이벤트 페이지로 이동한다.</t>
+  </si>
+  <si>
     <t>F021</t>
   </si>
   <si>
@@ -229,24 +254,36 @@
     <t>공지사항</t>
   </si>
   <si>
+    <t>이용약관, 서비스 이용시간 등의 공지사항을 안내한다.</t>
+  </si>
+  <si>
     <t>F022</t>
   </si>
   <si>
     <t>자주 묻는 질문</t>
   </si>
   <si>
+    <t>자주 묻는 질문을 안내한다.</t>
+  </si>
+  <si>
     <t>F023</t>
   </si>
   <si>
     <t>고객 지원 정보</t>
   </si>
   <si>
+    <t>고객 센터 번호, 이메일 등의 고객 지원 정보를 안내한다.</t>
+  </si>
+  <si>
     <t>F024</t>
   </si>
   <si>
     <t>개인정보 이용 약관</t>
   </si>
   <si>
+    <t>서비스 이용 약관, 개인정보 처리방침, 전자금융거래약관을 조회한다.</t>
+  </si>
+  <si>
     <t>F025</t>
   </si>
   <si>
@@ -256,136 +293,196 @@
     <t>회원 가입</t>
   </si>
   <si>
+    <t>회원정보를 입력하여 쿠팡 회원가입을 한다.</t>
+  </si>
+  <si>
     <t>F026</t>
   </si>
   <si>
     <t>로그인</t>
   </si>
   <si>
+    <t>쿠팡 앱으로 로그인, 쿠팡 아이디로 로그인할지 선택하여 계정에 로그인한다.</t>
+  </si>
+  <si>
     <t>F027</t>
   </si>
   <si>
     <t>로그아웃</t>
   </si>
   <si>
+    <t>계정을 로그아웃한다.</t>
+  </si>
+  <si>
     <t>F028</t>
   </si>
   <si>
-    <t>회원 탈퇴</t>
+    <t>사용자 설정</t>
+  </si>
+  <si>
+    <t>언어</t>
+  </si>
+  <si>
+    <t>시스템 기본설정, 한국어, 영어 중 사용할 언어를 선택한다.</t>
   </si>
   <si>
     <t>F029</t>
   </si>
   <si>
-    <t>사용자 설정</t>
-  </si>
-  <si>
-    <t>언어</t>
+    <t>배달 현황 알림 유무</t>
+  </si>
+  <si>
+    <t>배달 현황 일림을 받을지 선택한다.</t>
   </si>
   <si>
     <t>F030</t>
   </si>
   <si>
-    <t>배달 현황 알림 유무</t>
+    <t>혜택 정보 알림 유무</t>
+  </si>
+  <si>
+    <t>쿠폰&amp;혜택 정보 알림을 받을지 선택한다.</t>
   </si>
   <si>
     <t>F031</t>
   </si>
   <si>
-    <t>혜택 정보 알림 유무</t>
+    <t>음식점 상세 조회</t>
+  </si>
+  <si>
+    <t>매장/원산지 정보</t>
+  </si>
+  <si>
+    <t>음식점 위치, 영업시간, 매장소개, 원산지 정보, 공지사항, 영양성분 정보, 알레르기 유발성분 정보를 조회한다.</t>
   </si>
   <si>
     <t>F032</t>
   </si>
   <si>
-    <t>음식점 상세 조회</t>
-  </si>
-  <si>
-    <t>매장/원산지 정보</t>
+    <t>전화번호</t>
+  </si>
+  <si>
+    <t>음식점 전화번호를 조회한다.</t>
   </si>
   <si>
     <t>F033</t>
   </si>
   <si>
-    <t>전화번호</t>
+    <t>메뉴</t>
+  </si>
+  <si>
+    <t>음식점에서 판매하는 메뉴를 조회한다.</t>
   </si>
   <si>
     <t>F034</t>
   </si>
   <si>
-    <t>메뉴</t>
+    <t>배달 소요 시간</t>
+  </si>
+  <si>
+    <t xml:space="preserve">주문한 음식을 배달받는 데 드는 시간의 통계를 구해 알려준다. </t>
   </si>
   <si>
     <t>F035</t>
   </si>
   <si>
-    <t>배달 소요 시간</t>
+    <t>매장 쿠폰 받기</t>
+  </si>
+  <si>
+    <t>음식점에서 제공하는 할인 쿠폰을 등록한다.</t>
   </si>
   <si>
     <t>F036</t>
   </si>
   <si>
-    <t>매장 쿠폰 받기</t>
+    <t>즐겨찾기 등록</t>
+  </si>
+  <si>
+    <t>즐겨 찾는 음식점을 등록하여 별도로 조회할 수 있게 한다.</t>
   </si>
   <si>
     <t>F037</t>
   </si>
   <si>
-    <t>즐겨찾기 등록</t>
+    <t>리뷰</t>
+  </si>
+  <si>
+    <t>해당 음식점의 이전 주문자들이 작성한 리뷰를 조회한다.</t>
   </si>
   <si>
     <t>F038</t>
   </si>
   <si>
-    <t>리뷰</t>
+    <t>포토 리뷰</t>
+  </si>
+  <si>
+    <t>주문한 음식에 대한 리뷰를 작성하면서 사진을 함께 등록한다.</t>
   </si>
   <si>
     <t>F039</t>
   </si>
   <si>
-    <t>포토 리뷰</t>
+    <t>리뷰 정렬</t>
+  </si>
+  <si>
+    <t>리뷰를 최신순, 별점순 등 특정 기준에 따라 정렬하여 조회한다.</t>
   </si>
   <si>
     <t>F040</t>
   </si>
   <si>
-    <t>리뷰 정렬</t>
+    <t>도움 유무</t>
+  </si>
+  <si>
+    <t>다른 주문자가 등록한 리뷰가 도움이 됐는 지 버튼을 눌러 표현한다.</t>
   </si>
   <si>
     <t>F041</t>
   </si>
   <si>
-    <t>도움 유무</t>
+    <t>리뷰 작성/수정/삭제</t>
+  </si>
+  <si>
+    <t>주문한 음식에 대한 리뷰를 작성, 수정, 삭제한다.</t>
   </si>
   <si>
     <t>F042</t>
   </si>
   <si>
-    <t>리뷰 작성/수정/삭제</t>
+    <t>신고</t>
+  </si>
+  <si>
+    <t>문제 소지가 있는 리뷰를 신고한다.</t>
   </si>
   <si>
     <t>F043</t>
   </si>
   <si>
-    <t>신고</t>
+    <t>기타</t>
+  </si>
+  <si>
+    <t>최상단으로 화면 이동</t>
+  </si>
+  <si>
+    <t>화면 스크롤을 맨 위로 이동시킨다.</t>
   </si>
   <si>
     <t>F044</t>
   </si>
   <si>
-    <t>기타</t>
-  </si>
-  <si>
-    <t>최상단으로 화면 이동</t>
+    <t>새로 고침</t>
+  </si>
+  <si>
+    <t>현재 페이지에서 제공하는 정보를 최신 정보로 업데이트한다.</t>
   </si>
   <si>
     <t>F045</t>
   </si>
   <si>
-    <t>새로 고침</t>
-  </si>
-  <si>
-    <t>F046</t>
+    <t>쿠팡이츠 설명</t>
+  </si>
+  <si>
+    <t>쿠팡이츠는 사용자가 등록한 위치 근처의 음식점들을 모아서 한 번에 조회, 주문, 결제, 배달, 리뷰할 수 있는 앱이다. 한식, 치킨, 분식, 신규 맛집 등 다양한 카테고리가 있어 사용자는 원하는 카테고리 별로 정렬하거나, 검색어를 직접 입력하여 음식점과 그 음식점의 리뷰를 조회할 수 있다. 원하는 메뉴를 선택하여 카트에 담고 쿠폰 소지 시 적용되는 쿠폰을 사용하여 한 번에 주문할 수 있다. 미리 등록된 계좌 이체, 신용/체크 카드, 결제 대행 서비스와 같은 다양한 결제 수단을 사용하여 간편하게 결제할 수 있다. 결제 후 주문이 접수 되면 입력한 배달 주소가 배달 기사에게 전송되고 배달 기사는 한 번에 한 주소만을 대상으로 배정된다. 사용자는 배달 현황과 배달 기사의 위치, 도착하기까지 남은 시간을 실시간으로 확인할 수 있다. 음식이 사용자에게 배달된 후 사용자는 음식점에 대해 별점과 리뷰를 남길 수 있으며, 다른 사용자가 남긴 리뷰에 대해 평가할 수 있다.</t>
   </si>
 </sst>
 </file>
@@ -395,7 +492,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -417,6 +514,11 @@
       <color indexed="8"/>
       <name val="맑은 고딕"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="맑은 고딕"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -427,7 +529,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="9"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -438,7 +540,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -448,28 +550,28 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="8"/>
@@ -491,66 +593,122 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="justify" vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -569,9 +727,10 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="fff2f2f2"/>
-      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffa5a5a5"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -722,9 +881,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -804,7 +963,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -832,10 +991,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1091,9 +1250,9 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -1381,7 +1540,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1409,10 +1568,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1667,7 +1826,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
@@ -1941,9 +2100,11 @@
       <c r="C19" t="s" s="13">
         <v>52</v>
       </c>
-      <c r="D19" s="17"/>
+      <c r="D19" t="s" s="14">
+        <v>53</v>
+      </c>
       <c r="E19" t="s" s="14">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" ht="16" customHeight="1">
@@ -1952,11 +2113,13 @@
       </c>
       <c r="B20" s="16"/>
       <c r="C20" t="s" s="13">
-        <v>54</v>
-      </c>
-      <c r="D20" s="17"/>
+        <v>55</v>
+      </c>
+      <c r="D20" t="s" s="14">
+        <v>56</v>
+      </c>
       <c r="E20" t="s" s="14">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" ht="16" customHeight="1">
@@ -1965,11 +2128,13 @@
       </c>
       <c r="B21" s="16"/>
       <c r="C21" t="s" s="13">
-        <v>56</v>
-      </c>
-      <c r="D21" s="17"/>
+        <v>58</v>
+      </c>
+      <c r="D21" t="s" s="14">
+        <v>59</v>
+      </c>
       <c r="E21" t="s" s="14">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" ht="16" customHeight="1">
@@ -1978,11 +2143,13 @@
       </c>
       <c r="B22" s="16"/>
       <c r="C22" t="s" s="13">
-        <v>58</v>
-      </c>
-      <c r="D22" s="17"/>
+        <v>61</v>
+      </c>
+      <c r="D22" t="s" s="14">
+        <v>62</v>
+      </c>
       <c r="E22" t="s" s="14">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" ht="16" customHeight="1">
@@ -1990,14 +2157,16 @@
         <v>18</v>
       </c>
       <c r="B23" t="s" s="12">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C23" t="s" s="13">
-        <v>61</v>
-      </c>
-      <c r="D23" s="17"/>
+        <v>65</v>
+      </c>
+      <c r="D23" t="s" s="14">
+        <v>66</v>
+      </c>
       <c r="E23" t="s" s="14">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" ht="16" customHeight="1">
@@ -2006,11 +2175,13 @@
       </c>
       <c r="B24" s="16"/>
       <c r="C24" t="s" s="13">
-        <v>63</v>
-      </c>
-      <c r="D24" s="17"/>
+        <v>68</v>
+      </c>
+      <c r="D24" t="s" s="14">
+        <v>69</v>
+      </c>
       <c r="E24" t="s" s="14">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" ht="16" customHeight="1">
@@ -2019,11 +2190,13 @@
       </c>
       <c r="B25" s="16"/>
       <c r="C25" t="s" s="13">
-        <v>65</v>
-      </c>
-      <c r="D25" s="17"/>
+        <v>71</v>
+      </c>
+      <c r="D25" t="s" s="14">
+        <v>72</v>
+      </c>
       <c r="E25" t="s" s="14">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" ht="16" customHeight="1">
@@ -2031,14 +2204,16 @@
         <v>21</v>
       </c>
       <c r="B26" t="s" s="12">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s" s="13">
-        <v>68</v>
-      </c>
-      <c r="D26" s="17"/>
+        <v>75</v>
+      </c>
+      <c r="D26" t="s" s="14">
+        <v>76</v>
+      </c>
       <c r="E26" t="s" s="14">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" ht="16" customHeight="1">
@@ -2046,14 +2221,16 @@
         <v>22</v>
       </c>
       <c r="B27" t="s" s="12">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s" s="13">
-        <v>71</v>
-      </c>
-      <c r="D27" s="17"/>
+        <v>79</v>
+      </c>
+      <c r="D27" t="s" s="14">
+        <v>80</v>
+      </c>
       <c r="E27" t="s" s="14">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" ht="16" customHeight="1">
@@ -2062,11 +2239,13 @@
       </c>
       <c r="B28" s="16"/>
       <c r="C28" t="s" s="13">
-        <v>73</v>
-      </c>
-      <c r="D28" s="17"/>
+        <v>82</v>
+      </c>
+      <c r="D28" t="s" s="14">
+        <v>83</v>
+      </c>
       <c r="E28" t="s" s="14">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" ht="16" customHeight="1">
@@ -2075,11 +2254,13 @@
       </c>
       <c r="B29" s="16"/>
       <c r="C29" t="s" s="13">
-        <v>75</v>
-      </c>
-      <c r="D29" s="17"/>
+        <v>85</v>
+      </c>
+      <c r="D29" t="s" s="14">
+        <v>86</v>
+      </c>
       <c r="E29" t="s" s="14">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" ht="16" customHeight="1">
@@ -2088,11 +2269,13 @@
       </c>
       <c r="B30" s="16"/>
       <c r="C30" t="s" s="13">
-        <v>77</v>
-      </c>
-      <c r="D30" s="17"/>
+        <v>88</v>
+      </c>
+      <c r="D30" t="s" s="17">
+        <v>89</v>
+      </c>
       <c r="E30" t="s" s="14">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" ht="16" customHeight="1">
@@ -2100,14 +2283,16 @@
         <v>26</v>
       </c>
       <c r="B31" t="s" s="12">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C31" t="s" s="13">
-        <v>80</v>
-      </c>
-      <c r="D31" s="17"/>
+        <v>92</v>
+      </c>
+      <c r="D31" t="s" s="14">
+        <v>93</v>
+      </c>
       <c r="E31" t="s" s="14">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" ht="16" customHeight="1">
@@ -2116,11 +2301,13 @@
       </c>
       <c r="B32" s="16"/>
       <c r="C32" t="s" s="13">
-        <v>82</v>
-      </c>
-      <c r="D32" s="17"/>
+        <v>95</v>
+      </c>
+      <c r="D32" t="s" s="17">
+        <v>96</v>
+      </c>
       <c r="E32" t="s" s="14">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" ht="16" customHeight="1">
@@ -2129,80 +2316,92 @@
       </c>
       <c r="B33" s="16"/>
       <c r="C33" t="s" s="13">
-        <v>84</v>
-      </c>
-      <c r="D33" s="17"/>
+        <v>98</v>
+      </c>
+      <c r="D33" t="s" s="14">
+        <v>99</v>
+      </c>
       <c r="E33" t="s" s="14">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" ht="16" customHeight="1">
       <c r="A34" s="11">
         <v>29</v>
       </c>
-      <c r="B34" s="16"/>
+      <c r="B34" t="s" s="12">
+        <v>101</v>
+      </c>
       <c r="C34" t="s" s="13">
-        <v>86</v>
-      </c>
-      <c r="D34" s="17"/>
+        <v>102</v>
+      </c>
+      <c r="D34" t="s" s="14">
+        <v>103</v>
+      </c>
       <c r="E34" t="s" s="14">
-        <v>87</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" ht="16" customHeight="1">
       <c r="A35" s="11">
         <v>30</v>
       </c>
-      <c r="B35" t="s" s="12">
-        <v>88</v>
-      </c>
+      <c r="B35" s="16"/>
       <c r="C35" t="s" s="13">
-        <v>89</v>
-      </c>
-      <c r="D35" s="17"/>
+        <v>105</v>
+      </c>
+      <c r="D35" t="s" s="14">
+        <v>106</v>
+      </c>
       <c r="E35" t="s" s="14">
-        <v>90</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" ht="16" customHeight="1">
       <c r="A36" s="11">
         <v>31</v>
       </c>
-      <c r="B36" s="16"/>
+      <c r="B36" s="18"/>
       <c r="C36" t="s" s="13">
-        <v>91</v>
-      </c>
-      <c r="D36" s="17"/>
+        <v>108</v>
+      </c>
+      <c r="D36" t="s" s="14">
+        <v>109</v>
+      </c>
       <c r="E36" t="s" s="14">
-        <v>92</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" ht="16" customHeight="1">
       <c r="A37" s="11">
         <v>32</v>
       </c>
-      <c r="B37" s="17"/>
+      <c r="B37" t="s" s="12">
+        <v>111</v>
+      </c>
       <c r="C37" t="s" s="13">
-        <v>93</v>
-      </c>
-      <c r="D37" s="17"/>
+        <v>112</v>
+      </c>
+      <c r="D37" t="s" s="17">
+        <v>113</v>
+      </c>
       <c r="E37" t="s" s="14">
-        <v>94</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" ht="16" customHeight="1">
       <c r="A38" s="11">
         <v>33</v>
       </c>
-      <c r="B38" t="s" s="12">
-        <v>95</v>
-      </c>
+      <c r="B38" s="16"/>
       <c r="C38" t="s" s="13">
-        <v>96</v>
-      </c>
-      <c r="D38" s="17"/>
+        <v>115</v>
+      </c>
+      <c r="D38" t="s" s="14">
+        <v>116</v>
+      </c>
       <c r="E38" t="s" s="14">
-        <v>97</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" ht="16" customHeight="1">
@@ -2211,11 +2410,13 @@
       </c>
       <c r="B39" s="16"/>
       <c r="C39" t="s" s="13">
-        <v>98</v>
-      </c>
-      <c r="D39" s="17"/>
+        <v>118</v>
+      </c>
+      <c r="D39" t="s" s="14">
+        <v>119</v>
+      </c>
       <c r="E39" t="s" s="14">
-        <v>99</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" ht="16" customHeight="1">
@@ -2224,11 +2425,13 @@
       </c>
       <c r="B40" s="16"/>
       <c r="C40" t="s" s="13">
-        <v>100</v>
-      </c>
-      <c r="D40" s="17"/>
+        <v>121</v>
+      </c>
+      <c r="D40" t="s" s="14">
+        <v>122</v>
+      </c>
       <c r="E40" t="s" s="14">
-        <v>101</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" ht="16" customHeight="1">
@@ -2237,11 +2440,13 @@
       </c>
       <c r="B41" s="16"/>
       <c r="C41" t="s" s="13">
-        <v>102</v>
-      </c>
-      <c r="D41" s="17"/>
+        <v>124</v>
+      </c>
+      <c r="D41" t="s" s="14">
+        <v>125</v>
+      </c>
       <c r="E41" t="s" s="14">
-        <v>103</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" ht="16" customHeight="1">
@@ -2250,11 +2455,13 @@
       </c>
       <c r="B42" s="16"/>
       <c r="C42" t="s" s="13">
-        <v>104</v>
-      </c>
-      <c r="D42" s="17"/>
+        <v>127</v>
+      </c>
+      <c r="D42" t="s" s="14">
+        <v>128</v>
+      </c>
       <c r="E42" t="s" s="14">
-        <v>105</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" ht="16" customHeight="1">
@@ -2263,39 +2470,45 @@
       </c>
       <c r="B43" s="16"/>
       <c r="C43" t="s" s="13">
-        <v>106</v>
-      </c>
-      <c r="D43" s="17"/>
+        <v>130</v>
+      </c>
+      <c r="D43" t="s" s="14">
+        <v>131</v>
+      </c>
       <c r="E43" t="s" s="14">
-        <v>107</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" ht="16" customHeight="1">
       <c r="A44" s="11">
         <v>39</v>
       </c>
-      <c r="B44" s="16"/>
+      <c r="B44" t="s" s="12">
+        <v>130</v>
+      </c>
       <c r="C44" t="s" s="13">
-        <v>108</v>
-      </c>
-      <c r="D44" s="17"/>
+        <v>133</v>
+      </c>
+      <c r="D44" t="s" s="14">
+        <v>134</v>
+      </c>
       <c r="E44" t="s" s="14">
-        <v>109</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" ht="16" customHeight="1">
       <c r="A45" s="11">
         <v>40</v>
       </c>
-      <c r="B45" t="s" s="12">
-        <v>108</v>
-      </c>
+      <c r="B45" s="16"/>
       <c r="C45" t="s" s="13">
-        <v>110</v>
-      </c>
-      <c r="D45" s="17"/>
+        <v>136</v>
+      </c>
+      <c r="D45" t="s" s="14">
+        <v>137</v>
+      </c>
       <c r="E45" t="s" s="14">
-        <v>111</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" ht="16" customHeight="1">
@@ -2304,11 +2517,13 @@
       </c>
       <c r="B46" s="16"/>
       <c r="C46" t="s" s="13">
-        <v>112</v>
-      </c>
-      <c r="D46" s="17"/>
+        <v>139</v>
+      </c>
+      <c r="D46" t="s" s="14">
+        <v>140</v>
+      </c>
       <c r="E46" t="s" s="14">
-        <v>113</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" ht="16" customHeight="1">
@@ -2317,11 +2532,13 @@
       </c>
       <c r="B47" s="16"/>
       <c r="C47" t="s" s="13">
-        <v>114</v>
-      </c>
-      <c r="D47" s="17"/>
+        <v>142</v>
+      </c>
+      <c r="D47" t="s" s="14">
+        <v>143</v>
+      </c>
       <c r="E47" t="s" s="14">
-        <v>115</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" ht="16" customHeight="1">
@@ -2330,53 +2547,53 @@
       </c>
       <c r="B48" s="16"/>
       <c r="C48" t="s" s="13">
-        <v>116</v>
-      </c>
-      <c r="D48" s="17"/>
+        <v>145</v>
+      </c>
+      <c r="D48" t="s" s="14">
+        <v>146</v>
+      </c>
       <c r="E48" t="s" s="14">
-        <v>117</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" ht="16" customHeight="1">
       <c r="A49" s="11">
         <v>44</v>
       </c>
-      <c r="B49" s="16"/>
+      <c r="B49" t="s" s="12">
+        <v>148</v>
+      </c>
       <c r="C49" t="s" s="13">
-        <v>118</v>
-      </c>
-      <c r="D49" s="17"/>
+        <v>149</v>
+      </c>
+      <c r="D49" t="s" s="14">
+        <v>150</v>
+      </c>
       <c r="E49" t="s" s="14">
-        <v>119</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" ht="16" customHeight="1">
       <c r="A50" s="11">
         <v>45</v>
       </c>
-      <c r="B50" t="s" s="12">
-        <v>120</v>
-      </c>
+      <c r="B50" s="15"/>
       <c r="C50" t="s" s="13">
-        <v>121</v>
-      </c>
-      <c r="D50" s="17"/>
+        <v>152</v>
+      </c>
+      <c r="D50" t="s" s="14">
+        <v>153</v>
+      </c>
       <c r="E50" t="s" s="14">
-        <v>122</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51" ht="16" customHeight="1">
-      <c r="A51" s="11">
-        <v>46</v>
-      </c>
+      <c r="A51" s="18"/>
       <c r="B51" s="15"/>
-      <c r="C51" t="s" s="13">
-        <v>123</v>
-      </c>
-      <c r="D51" s="17"/>
-      <c r="E51" t="s" s="14">
-        <v>124</v>
-      </c>
+      <c r="C51" s="13"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2388,4 +2605,41 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="116.672" style="19" customWidth="1"/>
+    <col min="2" max="16384" width="16.3516" style="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="9.85" customHeight="1">
+      <c r="A1" s="20"/>
+    </row>
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" t="s" s="21">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" ht="100" customHeight="1">
+      <c r="A3" t="s" s="22">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>